--- a/FieldData/2015/xlsx_analysis/09-001-A Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/09-001-A Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_54CE6358EFDEE0118FEFE1EDA3A10935B0E37859" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C86DD4-338F-4CF8-BBEA-4202B325BBE1}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_54CE6358EFDEE0118FEFE1EDA3A10935B0E37859" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F3EBC20-9D28-434A-8678-6C18AD1A2631}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1320" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="93">
   <si>
     <t>PLOT</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Scientific</t>
-  </si>
-  <si>
-    <t>Common</t>
   </si>
   <si>
     <t>N</t>
@@ -334,6 +331,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2324,10 +2327,10 @@
   <dimension ref="A1:IN159"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2346,7 +2349,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
@@ -2358,108 +2361,108 @@
         <v>2</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F2" s="9">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>29</v>
+      <c r="D3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F3" s="9">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F4" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>72</v>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F5" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>4</v>
@@ -2468,197 +2471,199 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>36</v>
+      <c r="D6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="6">
-        <v>62</v>
-      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>37</v>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6">
+        <v>27</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F8" s="9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="9">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>44</v>
+      <c r="D10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>30</v>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="9">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>49</v>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F13" s="9">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -2666,2346 +2671,2377 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
+      <c r="D14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="9">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="9">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F17" s="9">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>52</v>
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>42</v>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="9">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>49</v>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="6">
+        <v>15</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="9">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="6"/>
+      <c r="F22" s="6">
+        <v>20</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="9">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="6"/>
+      <c r="F23" s="6">
+        <v>15</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="9">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="6">
+        <v>55</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="6">
+        <v>7</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:248" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6">
         <v>10</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:248" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="20">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="24">
-        <v>16</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
-      <c r="BA26" s="25"/>
-      <c r="BB26" s="25"/>
-      <c r="BC26" s="25"/>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="25"/>
-      <c r="BF26" s="25"/>
-      <c r="BG26" s="25"/>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="25"/>
-      <c r="BJ26" s="25"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="25"/>
-      <c r="BN26" s="25"/>
-      <c r="BO26" s="25"/>
-      <c r="BP26" s="25"/>
-      <c r="BQ26" s="25"/>
-      <c r="BR26" s="25"/>
-      <c r="BS26" s="25"/>
-      <c r="BT26" s="25"/>
-      <c r="BU26" s="25"/>
-      <c r="BV26" s="25"/>
-      <c r="BW26" s="25"/>
-      <c r="BX26" s="25"/>
-      <c r="BY26" s="25"/>
-      <c r="BZ26" s="25"/>
-      <c r="CA26" s="25"/>
-      <c r="CB26" s="25"/>
-      <c r="CC26" s="25"/>
-      <c r="CD26" s="25"/>
-      <c r="CE26" s="25"/>
-      <c r="CF26" s="25"/>
-      <c r="CG26" s="25"/>
-      <c r="CH26" s="25"/>
-      <c r="CI26" s="25"/>
-      <c r="CJ26" s="25"/>
-      <c r="CK26" s="25"/>
-      <c r="CL26" s="25"/>
-      <c r="CM26" s="25"/>
-      <c r="CN26" s="25"/>
-      <c r="CO26" s="25"/>
-      <c r="CP26" s="25"/>
-      <c r="CQ26" s="25"/>
-      <c r="CR26" s="25"/>
-      <c r="CS26" s="25"/>
-      <c r="CT26" s="25"/>
-      <c r="CU26" s="25"/>
-      <c r="CV26" s="25"/>
-      <c r="CW26" s="25"/>
-      <c r="CX26" s="25"/>
-      <c r="CY26" s="25"/>
-      <c r="CZ26" s="25"/>
-      <c r="DA26" s="25"/>
-      <c r="DB26" s="25"/>
-      <c r="DC26" s="25"/>
-      <c r="DD26" s="25"/>
-      <c r="DE26" s="25"/>
-      <c r="DF26" s="25"/>
-      <c r="DG26" s="25"/>
-      <c r="DH26" s="25"/>
-      <c r="DI26" s="25"/>
-      <c r="DJ26" s="25"/>
-      <c r="DK26" s="25"/>
-      <c r="DL26" s="25"/>
-      <c r="DM26" s="25"/>
-      <c r="DN26" s="25"/>
-      <c r="DO26" s="25"/>
-      <c r="DP26" s="25"/>
-      <c r="DQ26" s="25"/>
-      <c r="DR26" s="25"/>
-      <c r="DS26" s="25"/>
-      <c r="DT26" s="25"/>
-      <c r="DU26" s="25"/>
-      <c r="DV26" s="25"/>
-      <c r="DW26" s="25"/>
-      <c r="DX26" s="25"/>
-      <c r="DY26" s="25"/>
-      <c r="DZ26" s="25"/>
-      <c r="EA26" s="25"/>
-      <c r="EB26" s="25"/>
-      <c r="EC26" s="25"/>
-      <c r="ED26" s="25"/>
-      <c r="EE26" s="25"/>
-      <c r="EF26" s="25"/>
-      <c r="EG26" s="25"/>
-      <c r="EH26" s="25"/>
-      <c r="EI26" s="25"/>
-      <c r="EJ26" s="25"/>
-      <c r="EK26" s="25"/>
-      <c r="EL26" s="25"/>
-      <c r="EM26" s="25"/>
-      <c r="EN26" s="25"/>
-      <c r="EO26" s="25"/>
-      <c r="EP26" s="25"/>
-      <c r="EQ26" s="25"/>
-      <c r="ER26" s="25"/>
-      <c r="ES26" s="25"/>
-      <c r="ET26" s="25"/>
-      <c r="EU26" s="25"/>
-      <c r="EV26" s="25"/>
-      <c r="EW26" s="25"/>
-      <c r="EX26" s="25"/>
-      <c r="EY26" s="25"/>
-      <c r="EZ26" s="25"/>
-      <c r="FA26" s="25"/>
-      <c r="FB26" s="25"/>
-      <c r="FC26" s="25"/>
-      <c r="FD26" s="25"/>
-      <c r="FE26" s="25"/>
-      <c r="FF26" s="25"/>
-      <c r="FG26" s="25"/>
-      <c r="FH26" s="25"/>
-      <c r="FI26" s="25"/>
-      <c r="FJ26" s="25"/>
-      <c r="FK26" s="25"/>
-      <c r="FL26" s="25"/>
-      <c r="FM26" s="25"/>
-      <c r="FN26" s="25"/>
-      <c r="FO26" s="25"/>
-      <c r="FP26" s="25"/>
-      <c r="FQ26" s="25"/>
-      <c r="FR26" s="25"/>
-      <c r="FS26" s="25"/>
-      <c r="FT26" s="25"/>
-      <c r="FU26" s="25"/>
-      <c r="FV26" s="25"/>
-      <c r="FW26" s="25"/>
-      <c r="FX26" s="25"/>
-      <c r="FY26" s="25"/>
-      <c r="FZ26" s="25"/>
-      <c r="GA26" s="25"/>
-      <c r="GB26" s="25"/>
-      <c r="GC26" s="25"/>
-      <c r="GD26" s="25"/>
-      <c r="GE26" s="25"/>
-      <c r="GF26" s="25"/>
-      <c r="GG26" s="25"/>
-      <c r="GH26" s="25"/>
-      <c r="GI26" s="25"/>
-      <c r="GJ26" s="25"/>
-      <c r="GK26" s="25"/>
-      <c r="GL26" s="25"/>
-      <c r="GM26" s="25"/>
-      <c r="GN26" s="25"/>
-      <c r="GO26" s="25"/>
-      <c r="GP26" s="25"/>
-      <c r="GQ26" s="25"/>
-      <c r="GR26" s="25"/>
-      <c r="GS26" s="25"/>
-      <c r="GT26" s="25"/>
-      <c r="GU26" s="25"/>
-      <c r="GV26" s="25"/>
-      <c r="GW26" s="25"/>
-      <c r="GX26" s="25"/>
-      <c r="GY26" s="25"/>
-      <c r="GZ26" s="25"/>
-      <c r="HA26" s="25"/>
-      <c r="HB26" s="25"/>
-      <c r="HC26" s="25"/>
-      <c r="HD26" s="25"/>
-      <c r="HE26" s="25"/>
-      <c r="HF26" s="25"/>
-      <c r="HG26" s="25"/>
-      <c r="HH26" s="25"/>
-      <c r="HI26" s="25"/>
-      <c r="HJ26" s="25"/>
-      <c r="HK26" s="25"/>
-      <c r="HL26" s="25"/>
-      <c r="HM26" s="25"/>
-      <c r="HN26" s="25"/>
-      <c r="HO26" s="25"/>
-      <c r="HP26" s="25"/>
-      <c r="HQ26" s="25"/>
-      <c r="HR26" s="25"/>
-      <c r="HS26" s="25"/>
-      <c r="HT26" s="25"/>
-      <c r="HU26" s="25"/>
-      <c r="HV26" s="25"/>
-      <c r="HW26" s="25"/>
-      <c r="HX26" s="25"/>
-      <c r="HY26" s="25"/>
-      <c r="HZ26" s="25"/>
-      <c r="IA26" s="25"/>
-      <c r="IB26" s="25"/>
-      <c r="IC26" s="25"/>
-      <c r="ID26" s="25"/>
-      <c r="IE26" s="25"/>
-      <c r="IF26" s="25"/>
-      <c r="IG26" s="25"/>
-      <c r="IH26" s="25"/>
-      <c r="II26" s="25"/>
-      <c r="IJ26" s="25"/>
-      <c r="IK26" s="25"/>
-      <c r="IL26" s="25"/>
-      <c r="IM26" s="25"/>
-      <c r="IN26" s="25"/>
+      <c r="G26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1"/>
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
+      <c r="DE26" s="1"/>
+      <c r="DF26" s="1"/>
+      <c r="DG26" s="1"/>
+      <c r="DH26" s="1"/>
+      <c r="DI26" s="1"/>
+      <c r="DJ26" s="1"/>
+      <c r="DK26" s="1"/>
+      <c r="DL26" s="1"/>
+      <c r="DM26" s="1"/>
+      <c r="DN26" s="1"/>
+      <c r="DO26" s="1"/>
+      <c r="DP26" s="1"/>
+      <c r="DQ26" s="1"/>
+      <c r="DR26" s="1"/>
+      <c r="DS26" s="1"/>
+      <c r="DT26" s="1"/>
+      <c r="DU26" s="1"/>
+      <c r="DV26" s="1"/>
+      <c r="DW26" s="1"/>
+      <c r="DX26" s="1"/>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
+      <c r="EA26" s="1"/>
+      <c r="EB26" s="1"/>
+      <c r="EC26" s="1"/>
+      <c r="ED26" s="1"/>
+      <c r="EE26" s="1"/>
+      <c r="EF26" s="1"/>
+      <c r="EG26" s="1"/>
+      <c r="EH26" s="1"/>
+      <c r="EI26" s="1"/>
+      <c r="EJ26" s="1"/>
+      <c r="EK26" s="1"/>
+      <c r="EL26" s="1"/>
+      <c r="EM26" s="1"/>
+      <c r="EN26" s="1"/>
+      <c r="EO26" s="1"/>
+      <c r="EP26" s="1"/>
+      <c r="EQ26" s="1"/>
+      <c r="ER26" s="1"/>
+      <c r="ES26" s="1"/>
+      <c r="ET26" s="1"/>
+      <c r="EU26" s="1"/>
+      <c r="EV26" s="1"/>
+      <c r="EW26" s="1"/>
+      <c r="EX26" s="1"/>
+      <c r="EY26" s="1"/>
+      <c r="EZ26" s="1"/>
+      <c r="FA26" s="1"/>
+      <c r="FB26" s="1"/>
+      <c r="FC26" s="1"/>
+      <c r="FD26" s="1"/>
+      <c r="FE26" s="1"/>
+      <c r="FF26" s="1"/>
+      <c r="FG26" s="1"/>
+      <c r="FH26" s="1"/>
+      <c r="FI26" s="1"/>
+      <c r="FJ26" s="1"/>
+      <c r="FK26" s="1"/>
+      <c r="FL26" s="1"/>
+      <c r="FM26" s="1"/>
+      <c r="FN26" s="1"/>
+      <c r="FO26" s="1"/>
+      <c r="FP26" s="1"/>
+      <c r="FQ26" s="1"/>
+      <c r="FR26" s="1"/>
+      <c r="FS26" s="1"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" s="1"/>
+      <c r="FW26" s="1"/>
+      <c r="FX26" s="1"/>
+      <c r="FY26" s="1"/>
+      <c r="FZ26" s="1"/>
+      <c r="GA26" s="1"/>
+      <c r="GB26" s="1"/>
+      <c r="GC26" s="1"/>
+      <c r="GD26" s="1"/>
+      <c r="GE26" s="1"/>
+      <c r="GF26" s="1"/>
+      <c r="GG26" s="1"/>
+      <c r="GH26" s="1"/>
+      <c r="GI26" s="1"/>
+      <c r="GJ26" s="1"/>
+      <c r="GK26" s="1"/>
+      <c r="GL26" s="1"/>
+      <c r="GM26" s="1"/>
+      <c r="GN26" s="1"/>
+      <c r="GO26" s="1"/>
+      <c r="GP26" s="1"/>
+      <c r="GQ26" s="1"/>
+      <c r="GR26" s="1"/>
+      <c r="GS26" s="1"/>
+      <c r="GT26" s="1"/>
+      <c r="GU26" s="1"/>
+      <c r="GV26" s="1"/>
+      <c r="GW26" s="1"/>
+      <c r="GX26" s="1"/>
+      <c r="GY26" s="1"/>
+      <c r="GZ26" s="1"/>
+      <c r="HA26" s="1"/>
+      <c r="HB26" s="1"/>
+      <c r="HC26" s="1"/>
+      <c r="HD26" s="1"/>
+      <c r="HE26" s="1"/>
+      <c r="HF26" s="1"/>
+      <c r="HG26" s="1"/>
+      <c r="HH26" s="1"/>
+      <c r="HI26" s="1"/>
+      <c r="HJ26" s="1"/>
+      <c r="HK26" s="1"/>
+      <c r="HL26" s="1"/>
+      <c r="HM26" s="1"/>
+      <c r="HN26" s="1"/>
+      <c r="HO26" s="1"/>
+      <c r="HP26" s="1"/>
+      <c r="HQ26" s="1"/>
+      <c r="HR26" s="1"/>
+      <c r="HS26" s="1"/>
+      <c r="HT26" s="1"/>
+      <c r="HU26" s="1"/>
+      <c r="HV26" s="1"/>
+      <c r="HW26" s="1"/>
+      <c r="HX26" s="1"/>
+      <c r="HY26" s="1"/>
+      <c r="HZ26" s="1"/>
+      <c r="IA26" s="1"/>
+      <c r="IB26" s="1"/>
+      <c r="IC26" s="1"/>
+      <c r="ID26" s="1"/>
+      <c r="IE26" s="1"/>
+      <c r="IF26" s="1"/>
+      <c r="IG26" s="1"/>
+      <c r="IH26" s="1"/>
+      <c r="II26" s="1"/>
+      <c r="IJ26" s="1"/>
+      <c r="IK26" s="1"/>
+      <c r="IL26" s="1"/>
+      <c r="IM26" s="1"/>
+      <c r="IN26" s="1"/>
     </row>
     <row r="27" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="9">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6">
-        <v>175</v>
-      </c>
+      <c r="D27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="9">
-        <v>50</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="6"/>
+      <c r="F28" s="6">
+        <v>25</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="9">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="6"/>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="9">
-        <v>14</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F30" s="6">
+        <v>12</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="9">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="6"/>
+      <c r="D31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="6">
+        <v>15</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="6"/>
+      <c r="D33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="6">
+        <v>7</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="9">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="6"/>
+      <c r="D34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="6">
+        <v>7</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F35" s="6">
+        <v>35</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="6"/>
+      <c r="D36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>43</v>
+      <c r="D37" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F37" s="6">
+        <v>70</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="6"/>
+      <c r="D38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="6">
+        <v>30</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C39" s="5">
         <v>1</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8" t="s">
-        <v>50</v>
+      <c r="D39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F39" s="9">
-        <v>12</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C40" s="5">
         <v>1</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>32</v>
+      <c r="D40" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F40" s="9">
-        <v>85</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H40" s="6">
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C41" s="5">
         <v>1</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>35</v>
+      <c r="D41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F41" s="9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C42" s="5">
         <v>1</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F43" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="6">
-        <v>58</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F44" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>37</v>
+      <c r="D45" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F45" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>29</v>
+      <c r="D46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F46" s="9">
         <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F47" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F48" s="9">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F49" s="9">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>40</v>
+      <c r="D50" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F50" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F51" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F52" s="9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E53" s="8" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F53" s="9">
-        <v>10</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E54" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F54" s="9">
-        <v>12</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="6">
+        <v>175</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="9">
         <v>14</v>
       </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="9">
-        <v>30</v>
-      </c>
       <c r="G55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="6">
-        <v>56</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F56" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="6">
-        <v>75</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>77</v>
+      <c r="D57" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F57" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F58" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>54</v>
+      <c r="D59" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F59" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E60" s="8" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F60" s="9">
-        <v>20</v>
-      </c>
-      <c r="G60" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="9">
         <v>6</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="9">
-        <f>100-20-5-2-4-10-30</f>
-        <v>29</v>
-      </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>35</v>
+      <c r="D62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F62" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H62" s="6">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>37</v>
+      <c r="D63" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F63" s="9">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>32</v>
+      <c r="D64" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="6">
-        <v>15</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="F64" s="9">
+        <v>5</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="6">
-        <v>70</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="4">
-        <v>86</v>
-      </c>
+      <c r="D65" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="9">
+        <v>25</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="6">
-        <v>4</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="F66" s="9">
+        <v>3</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="6">
-        <v>8</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="4">
-        <v>125</v>
-      </c>
+      <c r="D67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="9">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68" s="6">
-        <v>15</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="4">
-        <v>67</v>
-      </c>
+      <c r="D68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="9">
+        <v>3</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" s="6">
-        <v>10</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" s="15"/>
+      <c r="F69" s="9">
+        <v>30</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="6">
+        <v>56</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="9">
+        <v>10</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="6">
+        <v>75</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F71" s="6">
-        <v>20</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H71" s="15"/>
+      <c r="D71" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="9">
+        <v>4</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" s="6">
-        <v>15</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H72" s="15"/>
+      <c r="D72" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="9">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>79</v>
+      <c r="D73" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="6">
-        <v>5</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="F73" s="9">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>31</v>
+      <c r="D74" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F74" s="6">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H74" s="4">
+        <v>86</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
       </c>
-      <c r="D75" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>49</v>
+      <c r="D75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F75" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="4">
-        <v>108</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="8" t="s">
+      <c r="D76" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="6">
         <v>8</v>
       </c>
-      <c r="F76" s="6">
-        <v>70</v>
-      </c>
       <c r="G76" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>78</v>
+      <c r="D77" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F77" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H77" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F78" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" s="5">
         <v>1</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>59</v>
+      <c r="D79" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F79" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F80" s="6">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>59</v>
+      <c r="D81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F81" s="6">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="4">
-        <v>174</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H81" s="15"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>82</v>
+      <c r="D82" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F82" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H82" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H82" s="4">
+        <v>108</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>79</v>
+      <c r="D83" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F83" s="6">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H83" s="4">
+        <v>122</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F84" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H84" s="4">
-        <v>68</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
       </c>
-      <c r="D85" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>49</v>
+      <c r="D85" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F85" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85" s="4">
-        <v>110</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H85" s="15"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F86" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H86" s="15"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F87" s="6">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H87" s="4">
+        <v>174</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F88" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" s="15"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="6">
         <v>6</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="6">
-        <v>12</v>
-      </c>
       <c r="G89" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H89" s="4">
+        <v>68</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="4" t="s">
-        <v>50</v>
+      <c r="D90" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F90" s="6">
-        <f>100-12-12</f>
-        <v>76</v>
-      </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="4">
+        <v>110</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F91" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H91" s="15"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" s="6">
         <v>6</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="5">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="6">
-        <v>8</v>
-      </c>
       <c r="G92" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H92" s="15"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="6">
         <v>6</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="5">
-        <v>1</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F93" s="6">
-        <v>7</v>
-      </c>
       <c r="G93" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H93" s="15"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F94" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H94" s="15"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>78</v>
+      <c r="D95" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F95" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H95" s="15"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
       </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="4" t="s">
-        <v>50</v>
+      <c r="D96" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F96" s="6">
-        <f>100-4-7-8-8</f>
-        <v>73</v>
-      </c>
-      <c r="G96" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="H96" s="15"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>32</v>
+      <c r="D97" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F97" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H97" s="15"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>55</v>
+      <c r="D98" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F98" s="6">
         <v>3</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H98" s="15"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C99" s="5">
         <v>1</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F99" s="6">
         <v>0.5</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H99" s="15"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C100" s="5">
         <v>1</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>35</v>
+      <c r="D100" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F100" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H100" s="15"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101" s="5">
         <v>1</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>49</v>
+      <c r="D101" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F101" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>20</v>
@@ -5014,22 +5050,22 @@
         <v>1</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F102" s="6">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>20</v>
@@ -5037,92 +5073,95 @@
       <c r="C103" s="5">
         <v>1</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="E103" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F103" s="6">
-        <f>100-F102-F100-2-0.5-3-10</f>
-        <v>80.5</v>
-      </c>
-      <c r="G103" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="H103" s="15"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" s="5">
         <v>1</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>33</v>
+      <c r="D104" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F104" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H104" s="15"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" s="5">
         <v>1</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>36</v>
+      <c r="D105" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F105" s="6">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105" s="15"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="5">
         <v>1</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F106" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106" s="15"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
@@ -5130,23 +5169,25 @@
       <c r="C107" s="5">
         <v>1</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E107" s="11" t="s">
+      <c r="D107" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="E107" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F107" s="6">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H107" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H107" s="4">
+        <v>125</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
@@ -5155,22 +5196,22 @@
         <v>1</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F108" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H108" s="15"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
@@ -5178,23 +5219,23 @@
       <c r="C109" s="5">
         <v>1</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>40</v>
+      <c r="D109" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F109" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H109" s="15"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -5203,22 +5244,22 @@
         <v>1</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F110" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H110" s="15"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
@@ -5226,93 +5267,95 @@
       <c r="C111" s="5">
         <v>1</v>
       </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="4" t="s">
-        <v>50</v>
+      <c r="D111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F111" s="6">
-        <v>15</v>
-      </c>
-      <c r="G111" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="H111" s="15"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" s="5">
         <v>1</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>8</v>
+      <c r="D112" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F112" s="6">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H112" s="4">
-        <v>125</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H112" s="15"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" s="5">
         <v>1</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>32</v>
+      <c r="D113" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F113" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H113" s="15"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" s="5">
         <v>1</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>35</v>
+      <c r="D114" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F114" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H114" s="15"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>22</v>
@@ -5320,23 +5363,25 @@
       <c r="C115" s="5">
         <v>1</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>37</v>
+      <c r="D115" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F115" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H115" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H115" s="4">
+        <v>104</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>22</v>
@@ -5344,237 +5389,243 @@
       <c r="C116" s="5">
         <v>1</v>
       </c>
-      <c r="D116" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>46</v>
+      <c r="D116" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F116" s="6">
         <v>2</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C117" s="5">
         <v>1</v>
       </c>
-      <c r="D117" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>65</v>
+      <c r="D117" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F117" s="6">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H117" s="15"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C118" s="5">
         <v>1</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>40</v>
+      <c r="D118" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F118" s="6">
         <v>3</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H118" s="15"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C119" s="5">
         <v>1</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F119" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H119" s="15"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C120" s="5">
         <v>1</v>
       </c>
-      <c r="D120" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>85</v>
+      <c r="D120" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F120" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C121" s="5">
         <v>1</v>
       </c>
-      <c r="D121" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>31</v>
+      <c r="D121" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F121" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H121" s="15"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C122" s="5">
         <v>1</v>
       </c>
-      <c r="D122" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>59</v>
+      <c r="D122" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F122" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H122" s="15"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C123" s="5">
         <v>1</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F123" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H123" s="4">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C124" s="5">
         <v>1</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>40</v>
+      <c r="D124" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F124" s="6">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H124" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H124" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C125" s="5">
         <v>1</v>
       </c>
-      <c r="D125" s="17"/>
+      <c r="D125" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="E125" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F125" s="6">
-        <v>93</v>
-      </c>
-      <c r="G125" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="H125" s="15"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>24</v>
@@ -5583,22 +5634,22 @@
         <v>1</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F126" s="6">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H126" s="15"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>24</v>
@@ -5606,615 +5657,629 @@
       <c r="C127" s="5">
         <v>1</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>33</v>
+      <c r="D127" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F127" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="6">
         <v>6</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="5">
-        <v>1</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128" s="6">
-        <v>3</v>
-      </c>
       <c r="G128" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H128" s="15"/>
     </row>
     <row r="129" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C129" s="5">
         <v>1</v>
       </c>
-      <c r="D129" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>44</v>
+      <c r="D129" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F129" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H129" s="15"/>
     </row>
     <row r="130" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C130" s="5">
         <v>1</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>40</v>
+      <c r="D130" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F130" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H130" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H130" s="4">
+        <v>158</v>
+      </c>
     </row>
     <row r="131" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>59</v>
+      <c r="D131" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F131" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H131" s="15"/>
     </row>
     <row r="132" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
-      <c r="D132" s="17"/>
+      <c r="D132" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="E132" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F132" s="6">
-        <v>20</v>
-      </c>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" s="4">
+        <v>186</v>
+      </c>
     </row>
     <row r="133" spans="1:248" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="20">
-        <v>1</v>
-      </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F133" s="21">
-        <v>17</v>
-      </c>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="25"/>
-      <c r="N133" s="25"/>
-      <c r="O133" s="25"/>
-      <c r="P133" s="25"/>
-      <c r="Q133" s="25"/>
-      <c r="R133" s="25"/>
-      <c r="S133" s="25"/>
-      <c r="T133" s="25"/>
-      <c r="U133" s="25"/>
-      <c r="V133" s="25"/>
-      <c r="W133" s="25"/>
-      <c r="X133" s="25"/>
-      <c r="Y133" s="25"/>
-      <c r="Z133" s="25"/>
-      <c r="AA133" s="25"/>
-      <c r="AB133" s="25"/>
-      <c r="AC133" s="25"/>
-      <c r="AD133" s="25"/>
-      <c r="AE133" s="25"/>
-      <c r="AF133" s="25"/>
-      <c r="AG133" s="25"/>
-      <c r="AH133" s="25"/>
-      <c r="AI133" s="25"/>
-      <c r="AJ133" s="25"/>
-      <c r="AK133" s="25"/>
-      <c r="AL133" s="25"/>
-      <c r="AM133" s="25"/>
-      <c r="AN133" s="25"/>
-      <c r="AO133" s="25"/>
-      <c r="AP133" s="25"/>
-      <c r="AQ133" s="25"/>
-      <c r="AR133" s="25"/>
-      <c r="AS133" s="25"/>
-      <c r="AT133" s="25"/>
-      <c r="AU133" s="25"/>
-      <c r="AV133" s="25"/>
-      <c r="AW133" s="25"/>
-      <c r="AX133" s="25"/>
-      <c r="AY133" s="25"/>
-      <c r="AZ133" s="25"/>
-      <c r="BA133" s="25"/>
-      <c r="BB133" s="25"/>
-      <c r="BC133" s="25"/>
-      <c r="BD133" s="25"/>
-      <c r="BE133" s="25"/>
-      <c r="BF133" s="25"/>
-      <c r="BG133" s="25"/>
-      <c r="BH133" s="25"/>
-      <c r="BI133" s="25"/>
-      <c r="BJ133" s="25"/>
-      <c r="BK133" s="25"/>
-      <c r="BL133" s="25"/>
-      <c r="BM133" s="25"/>
-      <c r="BN133" s="25"/>
-      <c r="BO133" s="25"/>
-      <c r="BP133" s="25"/>
-      <c r="BQ133" s="25"/>
-      <c r="BR133" s="25"/>
-      <c r="BS133" s="25"/>
-      <c r="BT133" s="25"/>
-      <c r="BU133" s="25"/>
-      <c r="BV133" s="25"/>
-      <c r="BW133" s="25"/>
-      <c r="BX133" s="25"/>
-      <c r="BY133" s="25"/>
-      <c r="BZ133" s="25"/>
-      <c r="CA133" s="25"/>
-      <c r="CB133" s="25"/>
-      <c r="CC133" s="25"/>
-      <c r="CD133" s="25"/>
-      <c r="CE133" s="25"/>
-      <c r="CF133" s="25"/>
-      <c r="CG133" s="25"/>
-      <c r="CH133" s="25"/>
-      <c r="CI133" s="25"/>
-      <c r="CJ133" s="25"/>
-      <c r="CK133" s="25"/>
-      <c r="CL133" s="25"/>
-      <c r="CM133" s="25"/>
-      <c r="CN133" s="25"/>
-      <c r="CO133" s="25"/>
-      <c r="CP133" s="25"/>
-      <c r="CQ133" s="25"/>
-      <c r="CR133" s="25"/>
-      <c r="CS133" s="25"/>
-      <c r="CT133" s="25"/>
-      <c r="CU133" s="25"/>
-      <c r="CV133" s="25"/>
-      <c r="CW133" s="25"/>
-      <c r="CX133" s="25"/>
-      <c r="CY133" s="25"/>
-      <c r="CZ133" s="25"/>
-      <c r="DA133" s="25"/>
-      <c r="DB133" s="25"/>
-      <c r="DC133" s="25"/>
-      <c r="DD133" s="25"/>
-      <c r="DE133" s="25"/>
-      <c r="DF133" s="25"/>
-      <c r="DG133" s="25"/>
-      <c r="DH133" s="25"/>
-      <c r="DI133" s="25"/>
-      <c r="DJ133" s="25"/>
-      <c r="DK133" s="25"/>
-      <c r="DL133" s="25"/>
-      <c r="DM133" s="25"/>
-      <c r="DN133" s="25"/>
-      <c r="DO133" s="25"/>
-      <c r="DP133" s="25"/>
-      <c r="DQ133" s="25"/>
-      <c r="DR133" s="25"/>
-      <c r="DS133" s="25"/>
-      <c r="DT133" s="25"/>
-      <c r="DU133" s="25"/>
-      <c r="DV133" s="25"/>
-      <c r="DW133" s="25"/>
-      <c r="DX133" s="25"/>
-      <c r="DY133" s="25"/>
-      <c r="DZ133" s="25"/>
-      <c r="EA133" s="25"/>
-      <c r="EB133" s="25"/>
-      <c r="EC133" s="25"/>
-      <c r="ED133" s="25"/>
-      <c r="EE133" s="25"/>
-      <c r="EF133" s="25"/>
-      <c r="EG133" s="25"/>
-      <c r="EH133" s="25"/>
-      <c r="EI133" s="25"/>
-      <c r="EJ133" s="25"/>
-      <c r="EK133" s="25"/>
-      <c r="EL133" s="25"/>
-      <c r="EM133" s="25"/>
-      <c r="EN133" s="25"/>
-      <c r="EO133" s="25"/>
-      <c r="EP133" s="25"/>
-      <c r="EQ133" s="25"/>
-      <c r="ER133" s="25"/>
-      <c r="ES133" s="25"/>
-      <c r="ET133" s="25"/>
-      <c r="EU133" s="25"/>
-      <c r="EV133" s="25"/>
-      <c r="EW133" s="25"/>
-      <c r="EX133" s="25"/>
-      <c r="EY133" s="25"/>
-      <c r="EZ133" s="25"/>
-      <c r="FA133" s="25"/>
-      <c r="FB133" s="25"/>
-      <c r="FC133" s="25"/>
-      <c r="FD133" s="25"/>
-      <c r="FE133" s="25"/>
-      <c r="FF133" s="25"/>
-      <c r="FG133" s="25"/>
-      <c r="FH133" s="25"/>
-      <c r="FI133" s="25"/>
-      <c r="FJ133" s="25"/>
-      <c r="FK133" s="25"/>
-      <c r="FL133" s="25"/>
-      <c r="FM133" s="25"/>
-      <c r="FN133" s="25"/>
-      <c r="FO133" s="25"/>
-      <c r="FP133" s="25"/>
-      <c r="FQ133" s="25"/>
-      <c r="FR133" s="25"/>
-      <c r="FS133" s="25"/>
-      <c r="FT133" s="25"/>
-      <c r="FU133" s="25"/>
-      <c r="FV133" s="25"/>
-      <c r="FW133" s="25"/>
-      <c r="FX133" s="25"/>
-      <c r="FY133" s="25"/>
-      <c r="FZ133" s="25"/>
-      <c r="GA133" s="25"/>
-      <c r="GB133" s="25"/>
-      <c r="GC133" s="25"/>
-      <c r="GD133" s="25"/>
-      <c r="GE133" s="25"/>
-      <c r="GF133" s="25"/>
-      <c r="GG133" s="25"/>
-      <c r="GH133" s="25"/>
-      <c r="GI133" s="25"/>
-      <c r="GJ133" s="25"/>
-      <c r="GK133" s="25"/>
-      <c r="GL133" s="25"/>
-      <c r="GM133" s="25"/>
-      <c r="GN133" s="25"/>
-      <c r="GO133" s="25"/>
-      <c r="GP133" s="25"/>
-      <c r="GQ133" s="25"/>
-      <c r="GR133" s="25"/>
-      <c r="GS133" s="25"/>
-      <c r="GT133" s="25"/>
-      <c r="GU133" s="25"/>
-      <c r="GV133" s="25"/>
-      <c r="GW133" s="25"/>
-      <c r="GX133" s="25"/>
-      <c r="GY133" s="25"/>
-      <c r="GZ133" s="25"/>
-      <c r="HA133" s="25"/>
-      <c r="HB133" s="25"/>
-      <c r="HC133" s="25"/>
-      <c r="HD133" s="25"/>
-      <c r="HE133" s="25"/>
-      <c r="HF133" s="25"/>
-      <c r="HG133" s="25"/>
-      <c r="HH133" s="25"/>
-      <c r="HI133" s="25"/>
-      <c r="HJ133" s="25"/>
-      <c r="HK133" s="25"/>
-      <c r="HL133" s="25"/>
-      <c r="HM133" s="25"/>
-      <c r="HN133" s="25"/>
-      <c r="HO133" s="25"/>
-      <c r="HP133" s="25"/>
-      <c r="HQ133" s="25"/>
-      <c r="HR133" s="25"/>
-      <c r="HS133" s="25"/>
-      <c r="HT133" s="25"/>
-      <c r="HU133" s="25"/>
-      <c r="HV133" s="25"/>
-      <c r="HW133" s="25"/>
-      <c r="HX133" s="25"/>
-      <c r="HY133" s="25"/>
-      <c r="HZ133" s="25"/>
-      <c r="IA133" s="25"/>
-      <c r="IB133" s="25"/>
-      <c r="IC133" s="25"/>
-      <c r="ID133" s="25"/>
-      <c r="IE133" s="25"/>
-      <c r="IF133" s="25"/>
-      <c r="IG133" s="25"/>
-      <c r="IH133" s="25"/>
-      <c r="II133" s="25"/>
-      <c r="IJ133" s="25"/>
-      <c r="IK133" s="25"/>
-      <c r="IL133" s="25"/>
-      <c r="IM133" s="25"/>
-      <c r="IN133" s="25"/>
+      <c r="A133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="5">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" s="6">
+        <v>4</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+      <c r="AJ133" s="1"/>
+      <c r="AK133" s="1"/>
+      <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
+      <c r="AN133" s="1"/>
+      <c r="AO133" s="1"/>
+      <c r="AP133" s="1"/>
+      <c r="AQ133" s="1"/>
+      <c r="AR133" s="1"/>
+      <c r="AS133" s="1"/>
+      <c r="AT133" s="1"/>
+      <c r="AU133" s="1"/>
+      <c r="AV133" s="1"/>
+      <c r="AW133" s="1"/>
+      <c r="AX133" s="1"/>
+      <c r="AY133" s="1"/>
+      <c r="AZ133" s="1"/>
+      <c r="BA133" s="1"/>
+      <c r="BB133" s="1"/>
+      <c r="BC133" s="1"/>
+      <c r="BD133" s="1"/>
+      <c r="BE133" s="1"/>
+      <c r="BF133" s="1"/>
+      <c r="BG133" s="1"/>
+      <c r="BH133" s="1"/>
+      <c r="BI133" s="1"/>
+      <c r="BJ133" s="1"/>
+      <c r="BK133" s="1"/>
+      <c r="BL133" s="1"/>
+      <c r="BM133" s="1"/>
+      <c r="BN133" s="1"/>
+      <c r="BO133" s="1"/>
+      <c r="BP133" s="1"/>
+      <c r="BQ133" s="1"/>
+      <c r="BR133" s="1"/>
+      <c r="BS133" s="1"/>
+      <c r="BT133" s="1"/>
+      <c r="BU133" s="1"/>
+      <c r="BV133" s="1"/>
+      <c r="BW133" s="1"/>
+      <c r="BX133" s="1"/>
+      <c r="BY133" s="1"/>
+      <c r="BZ133" s="1"/>
+      <c r="CA133" s="1"/>
+      <c r="CB133" s="1"/>
+      <c r="CC133" s="1"/>
+      <c r="CD133" s="1"/>
+      <c r="CE133" s="1"/>
+      <c r="CF133" s="1"/>
+      <c r="CG133" s="1"/>
+      <c r="CH133" s="1"/>
+      <c r="CI133" s="1"/>
+      <c r="CJ133" s="1"/>
+      <c r="CK133" s="1"/>
+      <c r="CL133" s="1"/>
+      <c r="CM133" s="1"/>
+      <c r="CN133" s="1"/>
+      <c r="CO133" s="1"/>
+      <c r="CP133" s="1"/>
+      <c r="CQ133" s="1"/>
+      <c r="CR133" s="1"/>
+      <c r="CS133" s="1"/>
+      <c r="CT133" s="1"/>
+      <c r="CU133" s="1"/>
+      <c r="CV133" s="1"/>
+      <c r="CW133" s="1"/>
+      <c r="CX133" s="1"/>
+      <c r="CY133" s="1"/>
+      <c r="CZ133" s="1"/>
+      <c r="DA133" s="1"/>
+      <c r="DB133" s="1"/>
+      <c r="DC133" s="1"/>
+      <c r="DD133" s="1"/>
+      <c r="DE133" s="1"/>
+      <c r="DF133" s="1"/>
+      <c r="DG133" s="1"/>
+      <c r="DH133" s="1"/>
+      <c r="DI133" s="1"/>
+      <c r="DJ133" s="1"/>
+      <c r="DK133" s="1"/>
+      <c r="DL133" s="1"/>
+      <c r="DM133" s="1"/>
+      <c r="DN133" s="1"/>
+      <c r="DO133" s="1"/>
+      <c r="DP133" s="1"/>
+      <c r="DQ133" s="1"/>
+      <c r="DR133" s="1"/>
+      <c r="DS133" s="1"/>
+      <c r="DT133" s="1"/>
+      <c r="DU133" s="1"/>
+      <c r="DV133" s="1"/>
+      <c r="DW133" s="1"/>
+      <c r="DX133" s="1"/>
+      <c r="DY133" s="1"/>
+      <c r="DZ133" s="1"/>
+      <c r="EA133" s="1"/>
+      <c r="EB133" s="1"/>
+      <c r="EC133" s="1"/>
+      <c r="ED133" s="1"/>
+      <c r="EE133" s="1"/>
+      <c r="EF133" s="1"/>
+      <c r="EG133" s="1"/>
+      <c r="EH133" s="1"/>
+      <c r="EI133" s="1"/>
+      <c r="EJ133" s="1"/>
+      <c r="EK133" s="1"/>
+      <c r="EL133" s="1"/>
+      <c r="EM133" s="1"/>
+      <c r="EN133" s="1"/>
+      <c r="EO133" s="1"/>
+      <c r="EP133" s="1"/>
+      <c r="EQ133" s="1"/>
+      <c r="ER133" s="1"/>
+      <c r="ES133" s="1"/>
+      <c r="ET133" s="1"/>
+      <c r="EU133" s="1"/>
+      <c r="EV133" s="1"/>
+      <c r="EW133" s="1"/>
+      <c r="EX133" s="1"/>
+      <c r="EY133" s="1"/>
+      <c r="EZ133" s="1"/>
+      <c r="FA133" s="1"/>
+      <c r="FB133" s="1"/>
+      <c r="FC133" s="1"/>
+      <c r="FD133" s="1"/>
+      <c r="FE133" s="1"/>
+      <c r="FF133" s="1"/>
+      <c r="FG133" s="1"/>
+      <c r="FH133" s="1"/>
+      <c r="FI133" s="1"/>
+      <c r="FJ133" s="1"/>
+      <c r="FK133" s="1"/>
+      <c r="FL133" s="1"/>
+      <c r="FM133" s="1"/>
+      <c r="FN133" s="1"/>
+      <c r="FO133" s="1"/>
+      <c r="FP133" s="1"/>
+      <c r="FQ133" s="1"/>
+      <c r="FR133" s="1"/>
+      <c r="FS133" s="1"/>
+      <c r="FT133" s="1"/>
+      <c r="FU133" s="1"/>
+      <c r="FV133" s="1"/>
+      <c r="FW133" s="1"/>
+      <c r="FX133" s="1"/>
+      <c r="FY133" s="1"/>
+      <c r="FZ133" s="1"/>
+      <c r="GA133" s="1"/>
+      <c r="GB133" s="1"/>
+      <c r="GC133" s="1"/>
+      <c r="GD133" s="1"/>
+      <c r="GE133" s="1"/>
+      <c r="GF133" s="1"/>
+      <c r="GG133" s="1"/>
+      <c r="GH133" s="1"/>
+      <c r="GI133" s="1"/>
+      <c r="GJ133" s="1"/>
+      <c r="GK133" s="1"/>
+      <c r="GL133" s="1"/>
+      <c r="GM133" s="1"/>
+      <c r="GN133" s="1"/>
+      <c r="GO133" s="1"/>
+      <c r="GP133" s="1"/>
+      <c r="GQ133" s="1"/>
+      <c r="GR133" s="1"/>
+      <c r="GS133" s="1"/>
+      <c r="GT133" s="1"/>
+      <c r="GU133" s="1"/>
+      <c r="GV133" s="1"/>
+      <c r="GW133" s="1"/>
+      <c r="GX133" s="1"/>
+      <c r="GY133" s="1"/>
+      <c r="GZ133" s="1"/>
+      <c r="HA133" s="1"/>
+      <c r="HB133" s="1"/>
+      <c r="HC133" s="1"/>
+      <c r="HD133" s="1"/>
+      <c r="HE133" s="1"/>
+      <c r="HF133" s="1"/>
+      <c r="HG133" s="1"/>
+      <c r="HH133" s="1"/>
+      <c r="HI133" s="1"/>
+      <c r="HJ133" s="1"/>
+      <c r="HK133" s="1"/>
+      <c r="HL133" s="1"/>
+      <c r="HM133" s="1"/>
+      <c r="HN133" s="1"/>
+      <c r="HO133" s="1"/>
+      <c r="HP133" s="1"/>
+      <c r="HQ133" s="1"/>
+      <c r="HR133" s="1"/>
+      <c r="HS133" s="1"/>
+      <c r="HT133" s="1"/>
+      <c r="HU133" s="1"/>
+      <c r="HV133" s="1"/>
+      <c r="HW133" s="1"/>
+      <c r="HX133" s="1"/>
+      <c r="HY133" s="1"/>
+      <c r="HZ133" s="1"/>
+      <c r="IA133" s="1"/>
+      <c r="IB133" s="1"/>
+      <c r="IC133" s="1"/>
+      <c r="ID133" s="1"/>
+      <c r="IE133" s="1"/>
+      <c r="IF133" s="1"/>
+      <c r="IG133" s="1"/>
+      <c r="IH133" s="1"/>
+      <c r="II133" s="1"/>
+      <c r="IJ133" s="1"/>
+      <c r="IK133" s="1"/>
+      <c r="IL133" s="1"/>
+      <c r="IM133" s="1"/>
+      <c r="IN133" s="1"/>
     </row>
     <row r="134" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
       </c>
-      <c r="D134" s="17"/>
+      <c r="D134" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="E134" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F134" s="6">
-        <v>15</v>
-      </c>
-      <c r="G134" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="H134" s="15"/>
     </row>
     <row r="135" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C135" s="5">
         <v>1</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>29</v>
+      <c r="D135" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F135" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H135" s="15"/>
     </row>
     <row r="136" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C136" s="5">
         <v>1</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>35</v>
+      <c r="D136" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F136" s="6">
         <v>7</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H136" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H136" s="4">
+        <v>68</v>
+      </c>
     </row>
     <row r="137" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C137" s="5">
         <v>1</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F137" s="6">
-        <v>2</v>
-      </c>
-      <c r="G137" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H137" s="15"/>
+      <c r="F137" s="9">
+        <v>5</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C138" s="5">
         <v>1</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>43</v>
+      <c r="D138" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" s="6">
-        <v>10</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H138" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C139" s="5">
         <v>1</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F139" s="6">
-        <v>27</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H139" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="F139" s="9">
+        <v>4</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C140" s="5">
         <v>1</v>
       </c>
-      <c r="D140" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>49</v>
+      <c r="D140" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F140" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H140" s="4">
-        <v>59</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H140" s="15"/>
     </row>
     <row r="141" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C141" s="5">
         <v>1</v>
       </c>
-      <c r="D141" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>72</v>
+      <c r="D141" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F141" s="6">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H141" s="4">
-        <v>24</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H141" s="15"/>
     </row>
     <row r="142" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C142" s="5">
         <v>1</v>
       </c>
-      <c r="D142" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>57</v>
+      <c r="D142" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F142" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H142" s="15"/>
     </row>
     <row r="143" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>25</v>
@@ -6222,408 +6287,856 @@
       <c r="C143" s="5">
         <v>1</v>
       </c>
-      <c r="D143" s="12" t="s">
-        <v>37</v>
+      <c r="D143" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F143" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H143" s="15"/>
     </row>
     <row r="144" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C144" s="5">
         <v>1</v>
       </c>
-      <c r="D144" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F144" s="6">
-        <v>5</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H144" s="15"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" s="5">
-        <v>1</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F145" s="6">
-        <v>35</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H145" s="15"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D144" s="7"/>
+      <c r="E144" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144" s="9">
+        <v>15</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A145" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="20">
+        <v>1</v>
+      </c>
+      <c r="D145" s="22"/>
+      <c r="E145" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F145" s="24">
+        <v>16</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H145" s="21"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="25"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="25"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="25"/>
+      <c r="P145" s="25"/>
+      <c r="Q145" s="25"/>
+      <c r="R145" s="25"/>
+      <c r="S145" s="25"/>
+      <c r="T145" s="25"/>
+      <c r="U145" s="25"/>
+      <c r="V145" s="25"/>
+      <c r="W145" s="25"/>
+      <c r="X145" s="25"/>
+      <c r="Y145" s="25"/>
+      <c r="Z145" s="25"/>
+      <c r="AA145" s="25"/>
+      <c r="AB145" s="25"/>
+      <c r="AC145" s="25"/>
+      <c r="AD145" s="25"/>
+      <c r="AE145" s="25"/>
+      <c r="AF145" s="25"/>
+      <c r="AG145" s="25"/>
+      <c r="AH145" s="25"/>
+      <c r="AI145" s="25"/>
+      <c r="AJ145" s="25"/>
+      <c r="AK145" s="25"/>
+      <c r="AL145" s="25"/>
+      <c r="AM145" s="25"/>
+      <c r="AN145" s="25"/>
+      <c r="AO145" s="25"/>
+      <c r="AP145" s="25"/>
+      <c r="AQ145" s="25"/>
+      <c r="AR145" s="25"/>
+      <c r="AS145" s="25"/>
+      <c r="AT145" s="25"/>
+      <c r="AU145" s="25"/>
+      <c r="AV145" s="25"/>
+      <c r="AW145" s="25"/>
+      <c r="AX145" s="25"/>
+      <c r="AY145" s="25"/>
+      <c r="AZ145" s="25"/>
+      <c r="BA145" s="25"/>
+      <c r="BB145" s="25"/>
+      <c r="BC145" s="25"/>
+      <c r="BD145" s="25"/>
+      <c r="BE145" s="25"/>
+      <c r="BF145" s="25"/>
+      <c r="BG145" s="25"/>
+      <c r="BH145" s="25"/>
+      <c r="BI145" s="25"/>
+      <c r="BJ145" s="25"/>
+      <c r="BK145" s="25"/>
+      <c r="BL145" s="25"/>
+      <c r="BM145" s="25"/>
+      <c r="BN145" s="25"/>
+      <c r="BO145" s="25"/>
+      <c r="BP145" s="25"/>
+      <c r="BQ145" s="25"/>
+      <c r="BR145" s="25"/>
+      <c r="BS145" s="25"/>
+      <c r="BT145" s="25"/>
+      <c r="BU145" s="25"/>
+      <c r="BV145" s="25"/>
+      <c r="BW145" s="25"/>
+      <c r="BX145" s="25"/>
+      <c r="BY145" s="25"/>
+      <c r="BZ145" s="25"/>
+      <c r="CA145" s="25"/>
+      <c r="CB145" s="25"/>
+      <c r="CC145" s="25"/>
+      <c r="CD145" s="25"/>
+      <c r="CE145" s="25"/>
+      <c r="CF145" s="25"/>
+      <c r="CG145" s="25"/>
+      <c r="CH145" s="25"/>
+      <c r="CI145" s="25"/>
+      <c r="CJ145" s="25"/>
+      <c r="CK145" s="25"/>
+      <c r="CL145" s="25"/>
+      <c r="CM145" s="25"/>
+      <c r="CN145" s="25"/>
+      <c r="CO145" s="25"/>
+      <c r="CP145" s="25"/>
+      <c r="CQ145" s="25"/>
+      <c r="CR145" s="25"/>
+      <c r="CS145" s="25"/>
+      <c r="CT145" s="25"/>
+      <c r="CU145" s="25"/>
+      <c r="CV145" s="25"/>
+      <c r="CW145" s="25"/>
+      <c r="CX145" s="25"/>
+      <c r="CY145" s="25"/>
+      <c r="CZ145" s="25"/>
+      <c r="DA145" s="25"/>
+      <c r="DB145" s="25"/>
+      <c r="DC145" s="25"/>
+      <c r="DD145" s="25"/>
+      <c r="DE145" s="25"/>
+      <c r="DF145" s="25"/>
+      <c r="DG145" s="25"/>
+      <c r="DH145" s="25"/>
+      <c r="DI145" s="25"/>
+      <c r="DJ145" s="25"/>
+      <c r="DK145" s="25"/>
+      <c r="DL145" s="25"/>
+      <c r="DM145" s="25"/>
+      <c r="DN145" s="25"/>
+      <c r="DO145" s="25"/>
+      <c r="DP145" s="25"/>
+      <c r="DQ145" s="25"/>
+      <c r="DR145" s="25"/>
+      <c r="DS145" s="25"/>
+      <c r="DT145" s="25"/>
+      <c r="DU145" s="25"/>
+      <c r="DV145" s="25"/>
+      <c r="DW145" s="25"/>
+      <c r="DX145" s="25"/>
+      <c r="DY145" s="25"/>
+      <c r="DZ145" s="25"/>
+      <c r="EA145" s="25"/>
+      <c r="EB145" s="25"/>
+      <c r="EC145" s="25"/>
+      <c r="ED145" s="25"/>
+      <c r="EE145" s="25"/>
+      <c r="EF145" s="25"/>
+      <c r="EG145" s="25"/>
+      <c r="EH145" s="25"/>
+      <c r="EI145" s="25"/>
+      <c r="EJ145" s="25"/>
+      <c r="EK145" s="25"/>
+      <c r="EL145" s="25"/>
+      <c r="EM145" s="25"/>
+      <c r="EN145" s="25"/>
+      <c r="EO145" s="25"/>
+      <c r="EP145" s="25"/>
+      <c r="EQ145" s="25"/>
+      <c r="ER145" s="25"/>
+      <c r="ES145" s="25"/>
+      <c r="ET145" s="25"/>
+      <c r="EU145" s="25"/>
+      <c r="EV145" s="25"/>
+      <c r="EW145" s="25"/>
+      <c r="EX145" s="25"/>
+      <c r="EY145" s="25"/>
+      <c r="EZ145" s="25"/>
+      <c r="FA145" s="25"/>
+      <c r="FB145" s="25"/>
+      <c r="FC145" s="25"/>
+      <c r="FD145" s="25"/>
+      <c r="FE145" s="25"/>
+      <c r="FF145" s="25"/>
+      <c r="FG145" s="25"/>
+      <c r="FH145" s="25"/>
+      <c r="FI145" s="25"/>
+      <c r="FJ145" s="25"/>
+      <c r="FK145" s="25"/>
+      <c r="FL145" s="25"/>
+      <c r="FM145" s="25"/>
+      <c r="FN145" s="25"/>
+      <c r="FO145" s="25"/>
+      <c r="FP145" s="25"/>
+      <c r="FQ145" s="25"/>
+      <c r="FR145" s="25"/>
+      <c r="FS145" s="25"/>
+      <c r="FT145" s="25"/>
+      <c r="FU145" s="25"/>
+      <c r="FV145" s="25"/>
+      <c r="FW145" s="25"/>
+      <c r="FX145" s="25"/>
+      <c r="FY145" s="25"/>
+      <c r="FZ145" s="25"/>
+      <c r="GA145" s="25"/>
+      <c r="GB145" s="25"/>
+      <c r="GC145" s="25"/>
+      <c r="GD145" s="25"/>
+      <c r="GE145" s="25"/>
+      <c r="GF145" s="25"/>
+      <c r="GG145" s="25"/>
+      <c r="GH145" s="25"/>
+      <c r="GI145" s="25"/>
+      <c r="GJ145" s="25"/>
+      <c r="GK145" s="25"/>
+      <c r="GL145" s="25"/>
+      <c r="GM145" s="25"/>
+      <c r="GN145" s="25"/>
+      <c r="GO145" s="25"/>
+      <c r="GP145" s="25"/>
+      <c r="GQ145" s="25"/>
+      <c r="GR145" s="25"/>
+      <c r="GS145" s="25"/>
+      <c r="GT145" s="25"/>
+      <c r="GU145" s="25"/>
+      <c r="GV145" s="25"/>
+      <c r="GW145" s="25"/>
+      <c r="GX145" s="25"/>
+      <c r="GY145" s="25"/>
+      <c r="GZ145" s="25"/>
+      <c r="HA145" s="25"/>
+      <c r="HB145" s="25"/>
+      <c r="HC145" s="25"/>
+      <c r="HD145" s="25"/>
+      <c r="HE145" s="25"/>
+      <c r="HF145" s="25"/>
+      <c r="HG145" s="25"/>
+      <c r="HH145" s="25"/>
+      <c r="HI145" s="25"/>
+      <c r="HJ145" s="25"/>
+      <c r="HK145" s="25"/>
+      <c r="HL145" s="25"/>
+      <c r="HM145" s="25"/>
+      <c r="HN145" s="25"/>
+      <c r="HO145" s="25"/>
+      <c r="HP145" s="25"/>
+      <c r="HQ145" s="25"/>
+      <c r="HR145" s="25"/>
+      <c r="HS145" s="25"/>
+      <c r="HT145" s="25"/>
+      <c r="HU145" s="25"/>
+      <c r="HV145" s="25"/>
+      <c r="HW145" s="25"/>
+      <c r="HX145" s="25"/>
+      <c r="HY145" s="25"/>
+      <c r="HZ145" s="25"/>
+      <c r="IA145" s="25"/>
+      <c r="IB145" s="25"/>
+      <c r="IC145" s="25"/>
+      <c r="ID145" s="25"/>
+      <c r="IE145" s="25"/>
+      <c r="IF145" s="25"/>
+      <c r="IG145" s="25"/>
+      <c r="IH145" s="25"/>
+      <c r="II145" s="25"/>
+      <c r="IJ145" s="25"/>
+      <c r="IK145" s="25"/>
+      <c r="IL145" s="25"/>
+      <c r="IM145" s="25"/>
+      <c r="IN145" s="25"/>
+    </row>
+    <row r="146" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C146" s="5">
         <v>1</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F146" s="6">
+      <c r="D146" s="7"/>
+      <c r="E146" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="9">
+        <v>12</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="5">
+        <v>1</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F147" s="9">
         <v>10</v>
       </c>
-      <c r="G146" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H146" s="15"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C147" s="5">
-        <v>1</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F147" s="6">
-        <v>6</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H147" s="15"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G147" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C148" s="5">
         <v>1</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F148" s="6">
-        <v>4</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H148" s="15"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D148" s="7"/>
+      <c r="E148" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F148" s="9">
+        <v>12</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C149" s="5">
         <v>1</v>
       </c>
-      <c r="D149" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F149" s="6">
-        <v>5</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H149" s="4">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D149" s="7"/>
+      <c r="E149" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F149" s="9">
+        <v>20</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C150" s="5">
         <v>1</v>
       </c>
-      <c r="D150" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="D150" s="7"/>
       <c r="E150" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F150" s="6">
-        <v>2</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H150" s="15"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F150" s="9">
+        <v>29</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:248" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C151" s="5">
         <v>1</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F151" s="6">
-        <f>100-4-5-4-6-10-35</f>
+        <v>76</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="5">
+        <v>1</v>
+      </c>
+      <c r="D152" s="17"/>
+      <c r="E152" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F152" s="6">
+        <v>73</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="5">
+        <v>1</v>
+      </c>
+      <c r="D153" s="17"/>
+      <c r="E153" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F153" s="6">
+        <v>80.5</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H153" s="15"/>
+    </row>
+    <row r="154" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F154" s="6">
+        <v>15</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="5">
+        <v>1</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F155" s="6">
+        <v>93</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F156" s="6">
+        <v>20</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H156" s="15"/>
+    </row>
+    <row r="157" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A157" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="20">
+        <v>1</v>
+      </c>
+      <c r="D157" s="28"/>
+      <c r="E157" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F157" s="21">
+        <v>17</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H157" s="27"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="25"/>
+      <c r="O157" s="25"/>
+      <c r="P157" s="25"/>
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="25"/>
+      <c r="V157" s="25"/>
+      <c r="W157" s="25"/>
+      <c r="X157" s="25"/>
+      <c r="Y157" s="25"/>
+      <c r="Z157" s="25"/>
+      <c r="AA157" s="25"/>
+      <c r="AB157" s="25"/>
+      <c r="AC157" s="25"/>
+      <c r="AD157" s="25"/>
+      <c r="AE157" s="25"/>
+      <c r="AF157" s="25"/>
+      <c r="AG157" s="25"/>
+      <c r="AH157" s="25"/>
+      <c r="AI157" s="25"/>
+      <c r="AJ157" s="25"/>
+      <c r="AK157" s="25"/>
+      <c r="AL157" s="25"/>
+      <c r="AM157" s="25"/>
+      <c r="AN157" s="25"/>
+      <c r="AO157" s="25"/>
+      <c r="AP157" s="25"/>
+      <c r="AQ157" s="25"/>
+      <c r="AR157" s="25"/>
+      <c r="AS157" s="25"/>
+      <c r="AT157" s="25"/>
+      <c r="AU157" s="25"/>
+      <c r="AV157" s="25"/>
+      <c r="AW157" s="25"/>
+      <c r="AX157" s="25"/>
+      <c r="AY157" s="25"/>
+      <c r="AZ157" s="25"/>
+      <c r="BA157" s="25"/>
+      <c r="BB157" s="25"/>
+      <c r="BC157" s="25"/>
+      <c r="BD157" s="25"/>
+      <c r="BE157" s="25"/>
+      <c r="BF157" s="25"/>
+      <c r="BG157" s="25"/>
+      <c r="BH157" s="25"/>
+      <c r="BI157" s="25"/>
+      <c r="BJ157" s="25"/>
+      <c r="BK157" s="25"/>
+      <c r="BL157" s="25"/>
+      <c r="BM157" s="25"/>
+      <c r="BN157" s="25"/>
+      <c r="BO157" s="25"/>
+      <c r="BP157" s="25"/>
+      <c r="BQ157" s="25"/>
+      <c r="BR157" s="25"/>
+      <c r="BS157" s="25"/>
+      <c r="BT157" s="25"/>
+      <c r="BU157" s="25"/>
+      <c r="BV157" s="25"/>
+      <c r="BW157" s="25"/>
+      <c r="BX157" s="25"/>
+      <c r="BY157" s="25"/>
+      <c r="BZ157" s="25"/>
+      <c r="CA157" s="25"/>
+      <c r="CB157" s="25"/>
+      <c r="CC157" s="25"/>
+      <c r="CD157" s="25"/>
+      <c r="CE157" s="25"/>
+      <c r="CF157" s="25"/>
+      <c r="CG157" s="25"/>
+      <c r="CH157" s="25"/>
+      <c r="CI157" s="25"/>
+      <c r="CJ157" s="25"/>
+      <c r="CK157" s="25"/>
+      <c r="CL157" s="25"/>
+      <c r="CM157" s="25"/>
+      <c r="CN157" s="25"/>
+      <c r="CO157" s="25"/>
+      <c r="CP157" s="25"/>
+      <c r="CQ157" s="25"/>
+      <c r="CR157" s="25"/>
+      <c r="CS157" s="25"/>
+      <c r="CT157" s="25"/>
+      <c r="CU157" s="25"/>
+      <c r="CV157" s="25"/>
+      <c r="CW157" s="25"/>
+      <c r="CX157" s="25"/>
+      <c r="CY157" s="25"/>
+      <c r="CZ157" s="25"/>
+      <c r="DA157" s="25"/>
+      <c r="DB157" s="25"/>
+      <c r="DC157" s="25"/>
+      <c r="DD157" s="25"/>
+      <c r="DE157" s="25"/>
+      <c r="DF157" s="25"/>
+      <c r="DG157" s="25"/>
+      <c r="DH157" s="25"/>
+      <c r="DI157" s="25"/>
+      <c r="DJ157" s="25"/>
+      <c r="DK157" s="25"/>
+      <c r="DL157" s="25"/>
+      <c r="DM157" s="25"/>
+      <c r="DN157" s="25"/>
+      <c r="DO157" s="25"/>
+      <c r="DP157" s="25"/>
+      <c r="DQ157" s="25"/>
+      <c r="DR157" s="25"/>
+      <c r="DS157" s="25"/>
+      <c r="DT157" s="25"/>
+      <c r="DU157" s="25"/>
+      <c r="DV157" s="25"/>
+      <c r="DW157" s="25"/>
+      <c r="DX157" s="25"/>
+      <c r="DY157" s="25"/>
+      <c r="DZ157" s="25"/>
+      <c r="EA157" s="25"/>
+      <c r="EB157" s="25"/>
+      <c r="EC157" s="25"/>
+      <c r="ED157" s="25"/>
+      <c r="EE157" s="25"/>
+      <c r="EF157" s="25"/>
+      <c r="EG157" s="25"/>
+      <c r="EH157" s="25"/>
+      <c r="EI157" s="25"/>
+      <c r="EJ157" s="25"/>
+      <c r="EK157" s="25"/>
+      <c r="EL157" s="25"/>
+      <c r="EM157" s="25"/>
+      <c r="EN157" s="25"/>
+      <c r="EO157" s="25"/>
+      <c r="EP157" s="25"/>
+      <c r="EQ157" s="25"/>
+      <c r="ER157" s="25"/>
+      <c r="ES157" s="25"/>
+      <c r="ET157" s="25"/>
+      <c r="EU157" s="25"/>
+      <c r="EV157" s="25"/>
+      <c r="EW157" s="25"/>
+      <c r="EX157" s="25"/>
+      <c r="EY157" s="25"/>
+      <c r="EZ157" s="25"/>
+      <c r="FA157" s="25"/>
+      <c r="FB157" s="25"/>
+      <c r="FC157" s="25"/>
+      <c r="FD157" s="25"/>
+      <c r="FE157" s="25"/>
+      <c r="FF157" s="25"/>
+      <c r="FG157" s="25"/>
+      <c r="FH157" s="25"/>
+      <c r="FI157" s="25"/>
+      <c r="FJ157" s="25"/>
+      <c r="FK157" s="25"/>
+      <c r="FL157" s="25"/>
+      <c r="FM157" s="25"/>
+      <c r="FN157" s="25"/>
+      <c r="FO157" s="25"/>
+      <c r="FP157" s="25"/>
+      <c r="FQ157" s="25"/>
+      <c r="FR157" s="25"/>
+      <c r="FS157" s="25"/>
+      <c r="FT157" s="25"/>
+      <c r="FU157" s="25"/>
+      <c r="FV157" s="25"/>
+      <c r="FW157" s="25"/>
+      <c r="FX157" s="25"/>
+      <c r="FY157" s="25"/>
+      <c r="FZ157" s="25"/>
+      <c r="GA157" s="25"/>
+      <c r="GB157" s="25"/>
+      <c r="GC157" s="25"/>
+      <c r="GD157" s="25"/>
+      <c r="GE157" s="25"/>
+      <c r="GF157" s="25"/>
+      <c r="GG157" s="25"/>
+      <c r="GH157" s="25"/>
+      <c r="GI157" s="25"/>
+      <c r="GJ157" s="25"/>
+      <c r="GK157" s="25"/>
+      <c r="GL157" s="25"/>
+      <c r="GM157" s="25"/>
+      <c r="GN157" s="25"/>
+      <c r="GO157" s="25"/>
+      <c r="GP157" s="25"/>
+      <c r="GQ157" s="25"/>
+      <c r="GR157" s="25"/>
+      <c r="GS157" s="25"/>
+      <c r="GT157" s="25"/>
+      <c r="GU157" s="25"/>
+      <c r="GV157" s="25"/>
+      <c r="GW157" s="25"/>
+      <c r="GX157" s="25"/>
+      <c r="GY157" s="25"/>
+      <c r="GZ157" s="25"/>
+      <c r="HA157" s="25"/>
+      <c r="HB157" s="25"/>
+      <c r="HC157" s="25"/>
+      <c r="HD157" s="25"/>
+      <c r="HE157" s="25"/>
+      <c r="HF157" s="25"/>
+      <c r="HG157" s="25"/>
+      <c r="HH157" s="25"/>
+      <c r="HI157" s="25"/>
+      <c r="HJ157" s="25"/>
+      <c r="HK157" s="25"/>
+      <c r="HL157" s="25"/>
+      <c r="HM157" s="25"/>
+      <c r="HN157" s="25"/>
+      <c r="HO157" s="25"/>
+      <c r="HP157" s="25"/>
+      <c r="HQ157" s="25"/>
+      <c r="HR157" s="25"/>
+      <c r="HS157" s="25"/>
+      <c r="HT157" s="25"/>
+      <c r="HU157" s="25"/>
+      <c r="HV157" s="25"/>
+      <c r="HW157" s="25"/>
+      <c r="HX157" s="25"/>
+      <c r="HY157" s="25"/>
+      <c r="HZ157" s="25"/>
+      <c r="IA157" s="25"/>
+      <c r="IB157" s="25"/>
+      <c r="IC157" s="25"/>
+      <c r="ID157" s="25"/>
+      <c r="IE157" s="25"/>
+      <c r="IF157" s="25"/>
+      <c r="IG157" s="25"/>
+      <c r="IH157" s="25"/>
+      <c r="II157" s="25"/>
+      <c r="IJ157" s="25"/>
+      <c r="IK157" s="25"/>
+      <c r="IL157" s="25"/>
+      <c r="IM157" s="25"/>
+      <c r="IN157" s="25"/>
+    </row>
+    <row r="158" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F158" s="6">
+        <v>15</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" spans="1:248" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" s="5">
+        <v>1</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F159" s="6">
         <v>36</v>
       </c>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C152" s="5">
-        <v>1</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F152" s="6">
-        <v>2</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H152" s="15"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="5">
-        <v>1</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F153" s="6">
-        <v>70</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H153" s="15"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="5">
-        <v>1</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F154" s="6">
-        <v>30</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H154" s="15"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" s="5">
-        <v>1</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F155" s="6">
-        <v>8</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H155" s="4">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156" s="5">
-        <v>1</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156" s="6">
-        <v>4</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H156" s="15"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="5">
-        <v>1</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F157" s="6">
-        <v>8</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H157" s="15"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="5">
-        <v>1</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="6">
-        <v>2</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H158" s="15"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="5">
-        <v>1</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F159" s="6">
-        <v>7</v>
-      </c>
       <c r="G159" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H159" s="4">
-        <v>68</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H159" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IN159">
+    <sortCondition ref="G2:G159"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
